--- a/docs/Mapping_casi_uso/morte/Morte_010.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_010.xlsx
@@ -56,7 +56,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>192</t>
+    <t>192.5</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -733,7 +733,7 @@
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -873,7 +873,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -913,7 +913,7 @@
         <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -1033,7 +1033,7 @@
         <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -1093,7 +1093,7 @@
         <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -1173,7 +1173,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1213,7 +1213,7 @@
         <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -1333,7 +1333,7 @@
         <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -1373,7 +1373,7 @@
         <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -1493,7 +1493,7 @@
         <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -1533,7 +1533,7 @@
         <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -1553,7 +1553,7 @@
         <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">

--- a/docs/Mapping_casi_uso/morte/Morte_010.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -401,7 +407,13 @@
     <t>evento.coniuge</t>
   </si>
   <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+  </si>
+  <si>
     <t>Unito civilmente</t>
+  </si>
+  <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -502,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -514,6 +526,7 @@
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="45.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -535,85 +548,100 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -635,2245 +663,2584 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_010.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_010.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/morte/Morte_010.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,34 +32,37 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Richiesta di trascrizione</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sentenza straniera</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Traduzione sentenza straniera</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>192.5</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Richiesta di trascrizione</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sentenza straniera</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Traduzione sentenza straniera</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>192.5</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -664,2583 +667,2583 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_010.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_010.xlsx
@@ -410,13 +410,13 @@
     <t>evento.coniuge</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)</t>
   </si>
   <si>
     <t>Unito civilmente</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -529,7 +529,7 @@
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="45.70703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/morte/Morte_010.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -164,6 +164,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -342,6 +348,9 @@
   </si>
   <si>
     <t>nomeComune</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Sentenza estera di morte</t>
@@ -517,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1000,7 +1009,7 @@
         <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>30</v>
@@ -1009,7 +1018,7 @@
         <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>21</v>
@@ -1092,7 +1101,7 @@
         <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>30</v>
@@ -1124,7 +1133,7 @@
         <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>21</v>
@@ -1147,7 +1156,7 @@
         <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>21</v>
@@ -1170,7 +1179,7 @@
         <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>21</v>
@@ -1207,7 +1216,7 @@
         <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>30</v>
@@ -1216,7 +1225,7 @@
         <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>21</v>
@@ -1270,19 +1279,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1293,19 +1302,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1316,19 +1325,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1339,19 +1348,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1362,19 +1371,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1385,19 +1394,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1408,19 +1417,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1431,19 +1440,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1454,19 +1463,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1477,19 +1486,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1500,19 +1509,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1523,19 +1532,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1546,19 +1555,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1569,7 +1578,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>86</v>
@@ -1578,10 +1587,10 @@
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1592,7 +1601,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>87</v>
@@ -1601,10 +1610,10 @@
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1615,19 +1624,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1638,19 +1647,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1661,7 +1670,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>90</v>
@@ -1670,10 +1679,10 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1684,7 +1693,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>91</v>
@@ -1693,10 +1702,10 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1707,7 +1716,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>92</v>
@@ -1716,10 +1725,10 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1739,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1762,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1785,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1808,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1831,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1845,19 +1854,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1868,19 +1877,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1891,19 +1900,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1923,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1937,19 +1946,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1969,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1992,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2015,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2038,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2061,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2075,19 +2084,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2098,508 +2107,508 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91">
@@ -2607,22 +2616,22 @@
         <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92">
@@ -2630,22 +2639,22 @@
         <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93">
@@ -2653,22 +2662,22 @@
         <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94">
@@ -2676,22 +2685,22 @@
         <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95">
@@ -2699,550 +2708,688 @@
         <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E118" s="2" t="s">
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_010.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_010.xlsx
@@ -2182,7 +2182,7 @@
         <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>115</v>

--- a/docs/Mapping_casi_uso/morte/Morte_010.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="185">
   <si>
     <t>Sezione</t>
   </si>
@@ -468,6 +468,105 @@
   </si>
   <si>
     <t>tipoScomparsa</t>
+  </si>
+  <si>
+    <t>Atto di nascita del deceduto</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoNascitaDeceduto</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -526,17 +625,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.12890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
@@ -3393,6 +3492,351 @@
         <v>21</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/morte/Morte_010.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="193">
   <si>
     <t>Sezione</t>
   </si>
@@ -297,6 +297,30 @@
   </si>
   <si>
     <t>Indirizzo Residenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Ultimo luogo</t>
@@ -625,7 +649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1884,19 +1908,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1907,19 +1931,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1930,19 +1954,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1953,19 +1977,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1976,19 +2000,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1999,16 +2023,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>109</v>
@@ -2022,7 +2046,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>110</v>
@@ -2031,7 +2055,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>111</v>
@@ -2045,19 +2069,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2068,19 +2092,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2091,19 +2115,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2114,19 +2138,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2137,19 +2161,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2160,16 +2184,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>124</v>
@@ -2183,16 +2207,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>126</v>
@@ -2206,16 +2230,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>128</v>
@@ -2229,16 +2253,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>130</v>
@@ -2252,16 +2276,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>132</v>
@@ -2275,19 +2299,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2298,1169 +2322,1169 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3471,19 +3495,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3494,122 +3518,122 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E129" s="2" t="s">
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>165</v>
@@ -3618,7 +3642,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>166</v>
@@ -3627,12 +3651,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>167</v>
@@ -3641,136 +3665,136 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>178</v>
@@ -3779,61 +3803,153 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E139" s="2" t="s">
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_010.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="194">
   <si>
     <t>Sezione</t>
   </si>
@@ -116,6 +116,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -170,13 +176,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -270,9 +276,6 @@
   </si>
   <si>
     <t>Comune Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
   </si>
   <si>
     <t>Nazionalità   - Descrizione</t>
@@ -649,7 +652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -948,7 +951,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>30</v>
@@ -1040,7 +1043,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>30</v>
@@ -1072,7 +1075,7 @@
         <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>21</v>
@@ -1095,7 +1098,7 @@
         <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>21</v>
@@ -1118,7 +1121,7 @@
         <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>21</v>
@@ -1155,7 +1158,7 @@
         <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>30</v>
@@ -1164,7 +1167,7 @@
         <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>21</v>
@@ -1247,7 +1250,7 @@
         <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>30</v>
@@ -1279,7 +1282,7 @@
         <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>21</v>
@@ -1302,7 +1305,7 @@
         <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>21</v>
@@ -1325,7 +1328,7 @@
         <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>21</v>
@@ -1362,7 +1365,7 @@
         <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>30</v>
@@ -1371,7 +1374,7 @@
         <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
@@ -1425,19 +1428,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1448,19 +1451,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1471,19 +1474,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1494,19 +1497,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1517,19 +1520,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1540,19 +1543,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1563,19 +1566,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1586,19 +1589,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1609,19 +1612,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1632,7 +1635,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>84</v>
@@ -1641,10 +1644,10 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1655,7 +1658,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>85</v>
@@ -1664,10 +1667,10 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1678,19 +1681,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1701,19 +1704,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1724,19 +1727,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1747,19 +1750,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1770,19 +1773,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1793,19 +1796,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1816,19 +1819,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1839,19 +1842,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1862,19 +1865,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1885,19 +1888,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1908,19 +1911,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1931,19 +1934,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1954,19 +1957,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1977,19 +1980,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2003,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2023,19 +2026,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2046,19 +2049,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2069,19 +2072,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2092,19 +2095,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2115,19 +2118,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2138,19 +2141,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2161,19 +2164,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2184,19 +2187,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2207,19 +2210,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2230,19 +2233,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2253,19 +2256,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2276,19 +2279,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2299,19 +2302,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2322,19 +2325,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2345,19 +2348,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2368,19 +2371,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2391,19 +2394,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2414,1169 +2417,1169 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3587,19 +3590,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3610,346 +3613,438 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E143" s="2" t="s">
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_010.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="196">
   <si>
     <t>Sezione</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -652,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1227,7 +1233,7 @@
         <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>30</v>
@@ -1236,7 +1242,7 @@
         <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>21</v>
@@ -1250,7 +1256,7 @@
         <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>30</v>
@@ -1282,7 +1288,7 @@
         <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>21</v>
@@ -1305,7 +1311,7 @@
         <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>21</v>
@@ -1328,7 +1334,7 @@
         <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>21</v>
@@ -1351,7 +1357,7 @@
         <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>21</v>
@@ -1388,7 +1394,7 @@
         <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>30</v>
@@ -1397,7 +1403,7 @@
         <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>21</v>
@@ -1451,19 +1457,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1474,19 +1480,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1497,19 +1503,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1520,19 +1526,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1543,19 +1549,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1566,19 +1572,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1589,19 +1595,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1612,19 +1618,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1635,19 +1641,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1658,19 +1664,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1681,19 +1687,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1704,19 +1710,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1733,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1756,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1779,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1802,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1825,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1842,7 +1848,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>91</v>
@@ -1851,10 +1857,10 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1865,7 +1871,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>92</v>
@@ -1874,10 +1880,10 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1888,7 +1894,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>93</v>
@@ -1897,10 +1903,10 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1911,7 +1917,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>94</v>
@@ -1920,10 +1926,10 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1934,7 +1940,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>95</v>
@@ -1943,10 +1949,10 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1957,7 +1963,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>96</v>
@@ -1966,10 +1972,10 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1980,19 +1986,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2003,19 +2009,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2026,19 +2032,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2049,19 +2055,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2072,19 +2078,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2095,19 +2101,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2118,19 +2124,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2141,19 +2147,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2164,19 +2170,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2193,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2216,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2233,19 +2239,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2256,19 +2262,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2285,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2308,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2325,19 +2331,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2348,19 +2354,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2371,19 +2377,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2394,19 +2400,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2423,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2446,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2463,571 +2469,571 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3038,19 +3044,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3061,19 +3067,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3084,485 +3090,485 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127">
@@ -3570,22 +3576,22 @@
         <v>147</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="128">
@@ -3593,22 +3599,22 @@
         <v>147</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129">
@@ -3616,62 +3622,62 @@
         <v>147</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3682,19 +3688,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3705,346 +3711,438 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E147" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
+      <c r="B151" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_010.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="198">
   <si>
     <t>Sezione</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -658,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1265,7 +1271,7 @@
         <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>21</v>
@@ -1288,7 +1294,7 @@
         <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>21</v>
@@ -1311,7 +1317,7 @@
         <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>21</v>
@@ -1334,7 +1340,7 @@
         <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>21</v>
@@ -1357,7 +1363,7 @@
         <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>21</v>
@@ -1380,7 +1386,7 @@
         <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
@@ -1417,7 +1423,7 @@
         <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>30</v>
@@ -1426,7 +1432,7 @@
         <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>21</v>
@@ -1480,19 +1486,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1503,19 +1509,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1526,19 +1532,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1549,19 +1555,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1572,19 +1578,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1595,19 +1601,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1618,19 +1624,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1641,19 +1647,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1664,19 +1670,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1687,19 +1693,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1710,19 +1716,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1733,19 +1739,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1756,19 +1762,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1779,19 +1785,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1802,19 +1808,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1825,19 +1831,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1848,16 +1854,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>61</v>
@@ -1871,16 +1877,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>63</v>
@@ -1894,16 +1900,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>65</v>
@@ -1917,16 +1923,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>67</v>
@@ -1940,16 +1946,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>69</v>
@@ -1963,16 +1969,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>71</v>
@@ -1986,16 +1992,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>73</v>
@@ -2009,19 +2015,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2032,7 +2038,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>100</v>
@@ -2041,7 +2047,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>101</v>
@@ -2055,7 +2061,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>102</v>
@@ -2064,7 +2070,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>103</v>
@@ -2078,7 +2084,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>104</v>
@@ -2087,7 +2093,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>105</v>
@@ -2101,19 +2107,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2124,19 +2130,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2147,16 +2153,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>114</v>
@@ -2170,7 +2176,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>115</v>
@@ -2179,7 +2185,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>116</v>
@@ -2193,7 +2199,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>117</v>
@@ -2202,7 +2208,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>118</v>
@@ -2216,7 +2222,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>119</v>
@@ -2225,7 +2231,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>120</v>
@@ -2239,7 +2245,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>121</v>
@@ -2248,7 +2254,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>122</v>
@@ -2262,19 +2268,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2291,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2308,16 +2314,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>129</v>
@@ -2331,7 +2337,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>130</v>
@@ -2340,7 +2346,7 @@
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>131</v>
@@ -2354,7 +2360,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>132</v>
@@ -2363,7 +2369,7 @@
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>133</v>
@@ -2377,7 +2383,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>134</v>
@@ -2386,7 +2392,7 @@
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>135</v>
@@ -2400,16 +2406,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>137</v>
@@ -2423,7 +2429,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>138</v>
@@ -2432,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>139</v>
@@ -2446,7 +2452,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>140</v>
@@ -2455,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>141</v>
@@ -2469,7 +2475,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>142</v>
@@ -2478,7 +2484,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>143</v>
@@ -2492,19 +2498,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2515,594 +2521,594 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3113,19 +3119,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3136,531 +3142,531 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131">
@@ -3668,22 +3674,22 @@
         <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="132">
@@ -3691,22 +3697,22 @@
         <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133">
@@ -3714,39 +3720,39 @@
         <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3757,19 +3763,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3780,19 +3786,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3803,346 +3809,415 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
+      <c r="B154" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_010.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="200">
   <si>
     <t>Sezione</t>
   </si>
@@ -576,6 +576,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -664,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4154,39 +4160,39 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>195</v>
@@ -4200,7 +4206,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>196</v>
@@ -4209,7 +4215,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>197</v>
@@ -4218,6 +4224,29 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_010.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_010.xlsx
@@ -2579,7 +2579,7 @@
         <v>32</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>147</v>
@@ -3177,7 +3177,7 @@
         <v>32</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>147</v>

--- a/docs/Mapping_casi_uso/morte/Morte_010.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="206">
   <si>
     <t>Sezione</t>
   </si>
@@ -612,6 +612,24 @@
   </si>
   <si>
     <t>testoAnnotazione</t>
+  </si>
+  <si>
+    <t>Atto Matrimonio</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoMatrimonio</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0].idstatocivile,in,(1,3,4,5,6,7,8,9)</t>
+  </si>
+  <si>
+    <t>Atto Unione Civile</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoUnioneCivile</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0].idstatocivile,in,(1,2,3,4,5,7,8,9)</t>
   </si>
 </sst>
 </file>
@@ -670,7 +688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -682,7 +700,7 @@
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="47.6484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4250,6 +4268,558 @@
         <v>21</v>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/morte/Morte_010.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="210">
   <si>
     <t>Sezione</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -688,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1033,7 +1045,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
@@ -1056,7 +1068,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
@@ -1065,7 +1077,7 @@
         <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>21</v>
@@ -1102,7 +1114,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>30</v>
@@ -1125,7 +1137,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>30</v>
@@ -1134,7 +1146,7 @@
         <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>21</v>
@@ -1203,7 +1215,7 @@
         <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>21</v>
@@ -1217,7 +1229,7 @@
         <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>30</v>
@@ -1226,7 +1238,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>21</v>
@@ -1240,7 +1252,7 @@
         <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>30</v>
@@ -1249,7 +1261,7 @@
         <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>21</v>
@@ -1263,7 +1275,7 @@
         <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>30</v>
@@ -1272,7 +1284,7 @@
         <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>21</v>
@@ -1286,7 +1298,7 @@
         <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>30</v>
@@ -1295,7 +1307,7 @@
         <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>21</v>
@@ -1318,7 +1330,7 @@
         <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>21</v>
@@ -1456,7 +1468,7 @@
         <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>21</v>
@@ -1470,7 +1482,7 @@
         <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>30</v>
@@ -1479,7 +1491,7 @@
         <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>21</v>
@@ -1493,7 +1505,7 @@
         <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>30</v>
@@ -1502,7 +1514,7 @@
         <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>21</v>
@@ -1533,19 +1545,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1556,19 +1568,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1579,19 +1591,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1602,19 +1614,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1625,19 +1637,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1648,19 +1660,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1671,19 +1683,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1694,19 +1706,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1717,19 +1729,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1740,19 +1752,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1775,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1786,19 +1798,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1809,19 +1821,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1832,19 +1844,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1855,19 +1867,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1878,19 +1890,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1901,19 +1913,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1924,19 +1936,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1947,19 +1959,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1970,19 +1982,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1993,7 +2005,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>97</v>
@@ -2002,10 +2014,10 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2016,7 +2028,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>98</v>
@@ -2025,10 +2037,10 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2039,7 +2051,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>99</v>
@@ -2048,10 +2060,10 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2062,7 +2074,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>100</v>
@@ -2071,10 +2083,10 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2085,19 +2097,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2108,19 +2120,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2131,19 +2143,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2154,19 +2166,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2177,19 +2189,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2200,19 +2212,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2223,19 +2235,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2246,19 +2258,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2269,19 +2281,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2292,19 +2304,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2315,19 +2327,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2338,19 +2350,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2361,19 +2373,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2384,19 +2396,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2407,19 +2419,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2430,19 +2442,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2453,19 +2465,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2488,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2499,19 +2511,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2522,19 +2534,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2545,19 +2557,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2568,2256 +2580,2440 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="E157" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E162" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E179" s="2" t="s">
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>205</v>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
